--- a/biology/Zoologie/Dryopsophus_raniformis/Dryopsophus_raniformis.xlsx
+++ b/biology/Zoologie/Dryopsophus_raniformis/Dryopsophus_raniformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus raniformis est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus raniformis est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 55 à 65 mm et les femelles de 60 à 104 mm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 55 à 65 mm et les femelles de 60 à 104 mm.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette grenouille peut être parasitée par Dolichoperoides macalpini.
 </t>
@@ -573,15 +589,17 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originellement endémique du Sud-Est de l'Australie. Elle se rencontre du niveau de la mer jusqu'à 1 300 m d'altitude[1],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originellement endémique du Sud-Est de l'Australie. Elle se rencontre du niveau de la mer jusqu'à 1 300 m d'altitude, :
 dans le sud de la Nouvelle-Galles du Sud ;
 dans l'État du Victoria ;
 dans le sud-est de l'Australie-Méridionale ;
 en Tasmanie ;
 dans les îles du détroit de Bass.
-Elle a été introduite en Nouvelle-Zélande et est très répandue dans les îles du Nord, du Sud, de Stewart et de la Grande Barrière[3].
+Elle a été introduite en Nouvelle-Zélande et est très répandue dans les îles du Nord, du Sud, de Stewart et de la Grande Barrière.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keferstein, 1867 : Über einige neue oder seltene Batrachier aus Australien und dem tropischen Amerika. Nachrichten von der königlichen Gesellschaft der Wissenschaften zu Göttingen, vol. 18, p. 341-361 (texte intégral).</t>
         </is>
